--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_367__Reeval_Halton_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_367__Reeval_Halton_Modell_1.2.xlsx
@@ -5987,10 +5987,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>90.55941009521484</c:v>
+                  <c:v>90.55940246582031</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.64567232131958</c:v>
+                  <c:v>4.645675182342529</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>82.63184356689453</c:v>
@@ -6014,28 +6014,28 @@
                   <c:v>53.25107574462891</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90.53826904296875</c:v>
+                  <c:v>90.53825378417969</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>90.55949401855469</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.658123970031738</c:v>
+                  <c:v>4.658121109008789</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>90.54344940185547</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>90.55924987792969</c:v>
+                  <c:v>90.55923461914062</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.632680416107178</c:v>
+                  <c:v>4.632683277130127</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.632225513458252</c:v>
+                  <c:v>4.632222652435303</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>90.55949401855469</c:v>
+                  <c:v>90.55950164794922</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>4.632495403289795</c:v>
@@ -6044,13 +6044,13 @@
                   <c:v>46.49637222290039</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>14.46588706970215</c:v>
+                  <c:v>14.46588516235352</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>72.95110321044922</c:v>
+                  <c:v>72.95111083984375</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.634302616119385</c:v>
+                  <c:v>4.634305477142334</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>90.48915100097656</c:v>
@@ -6059,22 +6059,22 @@
                   <c:v>4.655709743499756</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.376059532165527</c:v>
+                  <c:v>5.376062393188477</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.813004016876221</c:v>
+                  <c:v>4.81300687789917</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>57.30420684814453</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.632187843322754</c:v>
+                  <c:v>4.632190704345703</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>90.56003570556641</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>90.55049133300781</c:v>
+                  <c:v>90.55050659179688</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>17.71561813354492</c:v>
@@ -6086,7 +6086,7 @@
                   <c:v>4.633915424346924</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.855644226074219</c:v>
+                  <c:v>5.855647087097168</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>90.49587249755859</c:v>
@@ -6095,10 +6095,10 @@
                   <c:v>4.632255077362061</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>88.55531311035156</c:v>
+                  <c:v>88.55532836914062</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>59.18203353881836</c:v>
+                  <c:v>59.18202590942383</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>90.5556640625</c:v>
@@ -6110,10 +6110,10 @@
                   <c:v>78.2432861328125</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>90.55814361572266</c:v>
+                  <c:v>90.55815124511719</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>90.29124450683594</c:v>
+                  <c:v>90.29123687744141</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>25.04130172729492</c:v>
@@ -6125,10 +6125,10 @@
                   <c:v>90.48055267333984</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>90.53733062744141</c:v>
+                  <c:v>90.53731536865234</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5.702066898345947</c:v>
+                  <c:v>5.702060699462891</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>90.17515563964844</c:v>
@@ -6137,16 +6137,16 @@
                   <c:v>90.56060791015625</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4.709806442260742</c:v>
+                  <c:v>4.709803581237793</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>4.633249282836914</c:v>
+                  <c:v>4.633246421813965</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>7.318218231201172</c:v>
+                  <c:v>7.318219661712646</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>4.673383235931396</c:v>
+                  <c:v>4.673380374908447</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>90.51801300048828</c:v>
@@ -6158,7 +6158,7 @@
                   <c:v>62.16277694702148</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>4.633630752563477</c:v>
+                  <c:v>4.633627891540527</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>90.54259490966797</c:v>
@@ -6170,10 +6170,10 @@
                   <c:v>82.66089630126953</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4.632551193237305</c:v>
+                  <c:v>4.632554054260254</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>90.47837829589844</c:v>
+                  <c:v>90.4783935546875</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>90.54143524169922</c:v>
@@ -6182,7 +6182,7 @@
                   <c:v>62.07028198242188</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4.633525371551514</c:v>
+                  <c:v>4.633522510528564</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>90.15322875976562</c:v>
@@ -6191,10 +6191,10 @@
                   <c:v>90.26524353027344</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4.636816501617432</c:v>
+                  <c:v>4.63682222366333</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4.944906711578369</c:v>
+                  <c:v>4.944898128509521</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>90.55949401855469</c:v>
@@ -6203,13 +6203,13 @@
                   <c:v>90.55210113525391</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>90.40776062011719</c:v>
+                  <c:v>90.40774536132812</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>90.56097412109375</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>4.63275671005249</c:v>
+                  <c:v>4.632753849029541</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>76.03549957275391</c:v>
@@ -6218,13 +6218,13 @@
                   <c:v>88.59039306640625</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>90.55452728271484</c:v>
+                  <c:v>90.55451965332031</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>82.27413940429688</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>4.635566711425781</c:v>
+                  <c:v>4.63556957244873</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>90.7752685546875</c:v>
@@ -6233,13 +6233,13 @@
                   <c:v>90.56041717529297</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4.632278442382812</c:v>
+                  <c:v>4.632275581359863</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>87.03014373779297</c:v>
+                  <c:v>87.03015899658203</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>7.953030109405518</c:v>
+                  <c:v>7.953024387359619</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>90.50420379638672</c:v>
@@ -6254,13 +6254,13 @@
                   <c:v>88.89295196533203</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>87.97866821289062</c:v>
+                  <c:v>87.97867584228516</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>4.633536815643311</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>80.20616149902344</c:v>
+                  <c:v>80.20616912841797</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>90.5574951171875</c:v>
@@ -6272,19 +6272,19 @@
                   <c:v>89.91032409667969</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4.632357597351074</c:v>
+                  <c:v>4.632354736328125</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>88.69556427001953</c:v>
+                  <c:v>88.69554901123047</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>6.261132717132568</c:v>
+                  <c:v>6.261129856109619</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>39.76625823974609</c:v>
+                  <c:v>39.76626205444336</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>90.53923034667969</c:v>
+                  <c:v>90.53923797607422</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6979,7 +6979,7 @@
         <v>96.2991</v>
       </c>
       <c r="F2">
-        <v>90.55941009521484</v>
+        <v>90.55940246582031</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -7011,7 +7011,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>4.64567232131958</v>
+        <v>4.645675182342529</v>
       </c>
       <c r="G3">
         <v>120</v>
@@ -7231,7 +7231,7 @@
         <v>94.40819999999999</v>
       </c>
       <c r="F11">
-        <v>90.53826904296875</v>
+        <v>90.53825378417969</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.658123970031738</v>
+        <v>4.658121109008789</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7311,7 +7311,7 @@
         <v>93.9735</v>
       </c>
       <c r="F15">
-        <v>90.55924987792969</v>
+        <v>90.55923461914062</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>4.632680416107178</v>
+        <v>4.632683277130127</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>4.632225513458252</v>
+        <v>4.632222652435303</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>75.7182</v>
       </c>
       <c r="F18">
-        <v>90.55949401855469</v>
+        <v>90.55950164794922</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>14.46588706970215</v>
+        <v>14.46588516235352</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>67.3374</v>
       </c>
       <c r="F22">
-        <v>72.95110321044922</v>
+        <v>72.95111083984375</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.634302616119385</v>
+        <v>4.634305477142334</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>5.376059532165527</v>
+        <v>5.376062393188477</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>4.813004016876221</v>
+        <v>4.81300687789917</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>4.632187843322754</v>
+        <v>4.632190704345703</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>94.28400000000001</v>
       </c>
       <c r="F31">
-        <v>90.55049133300781</v>
+        <v>90.55050659179688</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>5.855644226074219</v>
+        <v>5.855647087097168</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>86.19970000000001</v>
       </c>
       <c r="F38">
-        <v>88.55531311035156</v>
+        <v>88.55532836914062</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>59.18203353881836</v>
+        <v>59.18202590942383</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>96.66849999999999</v>
       </c>
       <c r="F43">
-        <v>90.55814361572266</v>
+        <v>90.55815124511719</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>92.40940000000001</v>
       </c>
       <c r="F44">
-        <v>90.29124450683594</v>
+        <v>90.29123687744141</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>95.2355</v>
       </c>
       <c r="F48">
-        <v>90.53733062744141</v>
+        <v>90.53731536865234</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>5.702066898345947</v>
+        <v>5.702060699462891</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>52.4695</v>
       </c>
       <c r="F52">
-        <v>4.709806442260742</v>
+        <v>4.709803581237793</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>4.633249282836914</v>
+        <v>4.633246421813965</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>55.2559</v>
       </c>
       <c r="F54">
-        <v>7.318218231201172</v>
+        <v>7.318219661712646</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>4.673383235931396</v>
+        <v>4.673380374908447</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>4.633630752563477</v>
+        <v>4.633627891540527</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>4.632551193237305</v>
+        <v>4.632554054260254</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>72.6528</v>
       </c>
       <c r="F64">
-        <v>90.47837829589844</v>
+        <v>90.4783935546875</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>4.633525371551514</v>
+        <v>4.633522510528564</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>4.636816501617432</v>
+        <v>4.63682222366333</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>4.944906711578369</v>
+        <v>4.944898128509521</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>95.4374</v>
       </c>
       <c r="F74">
-        <v>90.40776062011719</v>
+        <v>90.40774536132812</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>4.63275671005249</v>
+        <v>4.632753849029541</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>93.7921</v>
       </c>
       <c r="F79">
-        <v>90.55452728271484</v>
+        <v>90.55451965332031</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>4.635566711425781</v>
+        <v>4.63556957244873</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>4.632278442382812</v>
+        <v>4.632275581359863</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>60.5714</v>
       </c>
       <c r="F85">
-        <v>87.03014373779297</v>
+        <v>87.03015899658203</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>7.953030109405518</v>
+        <v>7.953024387359619</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>75.5564</v>
       </c>
       <c r="F91">
-        <v>87.97866821289062</v>
+        <v>87.97867584228516</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>54.1262</v>
       </c>
       <c r="F93">
-        <v>80.20616149902344</v>
+        <v>80.20616912841797</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8951,7 +8951,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>4.632357597351074</v>
+        <v>4.632354736328125</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -8971,7 +8971,7 @@
         <v>94.0264</v>
       </c>
       <c r="F98">
-        <v>88.69556427001953</v>
+        <v>88.69554901123047</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -8991,7 +8991,7 @@
         <v>13.7923</v>
       </c>
       <c r="F99">
-        <v>6.261132717132568</v>
+        <v>6.261129856109619</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -9011,7 +9011,7 @@
         <v>50.6355</v>
       </c>
       <c r="F100">
-        <v>39.76625823974609</v>
+        <v>39.76626205444336</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -9031,7 +9031,7 @@
         <v>98.1628</v>
       </c>
       <c r="F101">
-        <v>90.53923034667969</v>
+        <v>90.53923797607422</v>
       </c>
     </row>
     <row r="102" spans="1:6">
